--- a/KR/bin/Debug/Statistics.xlsx
+++ b/KR/bin/Debug/Statistics.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B893CC2-95B6-4D0D-AF01-A2D9644B2582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE683DA5-3537-4070-8606-64FB5207D6B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграммы" sheetId="1" r:id="rId1"/>
-    <sheet name="Прибыль авто" sheetId="2" r:id="rId2"/>
-    <sheet name="Прибыль" sheetId="3" r:id="rId3"/>
-    <sheet name="Рейтинг авто" sheetId="4" r:id="rId4"/>
+    <sheet name="Прибыль" sheetId="3" r:id="rId2"/>
+    <sheet name="Рейтинг авто" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Сумма</t>
   </si>
@@ -86,9 +85,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,10 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -155,404 +150,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Прибыль</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> за указанный период</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F8BC-4C55-872B-58DC4E8BC312}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F8BC-4C55-872B-58DC4E8BC312}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F8BC-4C55-872B-58DC4E8BC312}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F8BC-4C55-872B-58DC4E8BC312}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F8BC-4C55-872B-58DC4E8BC312}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Прибыль авто'!$A$1:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>VW Polo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Шкода Фабия</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Шкада Рапид</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VW Polo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>VW Golf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Прибыль авто'!$B$1:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-F8BC-4C55-872B-58DC4E8BC312}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.9444225721784773E-2"/>
-          <c:y val="0.92711470699190113"/>
-          <c:w val="0.82111154855643043"/>
-          <c:h val="6.8807821040718531E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -911,7 +508,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1308,48 +905,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1406,7 +963,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1457,13 +1014,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1474,19 +1024,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1524,7 +1067,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1567,23 +1110,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1688,8 +1230,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1821,20 +1363,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2370,549 +1911,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B505799F-48FF-4BF8-92FD-4E45AC2B4C2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2945,7 +1945,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2953,15 +1953,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2983,7 +1983,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,66 +2269,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061162D9-A200-403A-9FD0-FABCD6248CCD}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>16800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38153-4741-467F-ACFF-93E3E5FB4870}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3443,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6635A19-8B27-46D0-AF1B-63EBEC3E2705}">
   <dimension ref="A1:B5"/>
   <sheetViews>
